--- a/trunk/SAD - Software Architecture & Design/Final/Report/Time Log/SAD-TimeLog-TamDo.xlsx
+++ b/trunk/SAD - Software Architecture & Design/Final/Report/Time Log/SAD-TimeLog-TamDo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>Week</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>Time Recording Log For:    SAD Final Project</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>Team Meeting Minutes</t>
+  </si>
+  <si>
+    <t>Use Case Diagram</t>
+  </si>
+  <si>
+    <t>URD</t>
   </si>
 </sst>
 </file>
@@ -243,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -328,6 +340,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1397,7 +1415,7 @@
   <dimension ref="A2:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1406,8 +1424,8 @@
     <col min="2" max="2" width="9.140625" style="23"/>
     <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="23"/>
-    <col min="6" max="6" width="14" style="23" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="22" style="23" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="23" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" style="23" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="23"/>
@@ -1484,12 +1502,24 @@
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="32">
+        <v>41052</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="K7" s="23" t="s">
@@ -1499,12 +1529,22 @@
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="K8" s="23" t="s">
@@ -2159,6 +2199,9 @@
       <c r="I61" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/trunk/SAD - Software Architecture & Design/Final/Report/Time Log/SAD-TimeLog-TamDo.xlsx
+++ b/trunk/SAD - Software Architecture & Design/Final/Report/Time Log/SAD-TimeLog-TamDo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t>Week</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>URD</t>
+  </si>
+  <si>
+    <t>URD template</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -344,6 +347,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1415,7 +1421,7 @@
   <dimension ref="A2:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1529,7 +1535,7 @@
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="4">
         <v>0.5625</v>
       </c>
@@ -1556,12 +1562,22 @@
       <c r="A9" s="28">
         <v>1</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="4">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="K9" s="23" t="s">
@@ -2200,7 +2216,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/SAD - Software Architecture & Design/Final/Report/Time Log/SAD-TimeLog-TamDo.xlsx
+++ b/trunk/SAD - Software Architecture & Design/Final/Report/Time Log/SAD-TimeLog-TamDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>Week</t>
   </si>
@@ -49,21 +49,9 @@
     <t>U</t>
   </si>
   <si>
-    <t>Coding</t>
-  </si>
-  <si>
     <t>Name:</t>
   </si>
   <si>
-    <t>Plan and Schedule</t>
-  </si>
-  <si>
-    <t>Architecture &amp; Design</t>
-  </si>
-  <si>
-    <t>Class diagram and Database</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOTAL </t>
   </si>
   <si>
@@ -79,9 +67,6 @@
     <t>SUMMARY: TIME FOR DOING PROJECT</t>
   </si>
   <si>
-    <t xml:space="preserve">Architecture drivers </t>
-  </si>
-  <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
@@ -110,6 +95,63 @@
   </si>
   <si>
     <t>URD template</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Định hình sơ bộ yêu cầu - ver0.1</t>
+  </si>
+  <si>
+    <t>Định hình yêu cầu</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Ananlysis &amp; Design</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Packaging &amp; Deployment</t>
+  </si>
+  <si>
+    <t>Planning + PM</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Định hình sơ bộ yêu cầu - ver0.2</t>
+  </si>
+  <si>
+    <t>Định hình sơ bộ yêu cầu - ver0.3</t>
+  </si>
+  <si>
+    <t>Requirement &amp; Analysis</t>
+  </si>
+  <si>
+    <t>Architecture Design</t>
+  </si>
+  <si>
+    <t>Implement</t>
+  </si>
+  <si>
+    <t>System Test</t>
+  </si>
+  <si>
+    <t>Deployment &amp; Maintenance</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -258,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -346,10 +388,31 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -646,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L61"/>
+  <dimension ref="A2:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -657,51 +720,54 @@
     <col min="1" max="1" width="7.42578125" style="22" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="23"/>
     <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="23"/>
-    <col min="6" max="6" width="14" style="23" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="23"/>
-    <col min="11" max="11" width="26" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="23"/>
+    <col min="4" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="9.140625" style="35"/>
+    <col min="6" max="6" width="9.140625" style="23"/>
+    <col min="7" max="7" width="18.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="23"/>
+    <col min="12" max="12" width="26" style="23" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="E2" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>17</v>
+      </c>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="D3" s="24"/>
-      <c r="K3" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="31">
+        <v>16</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="31">
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13.5" thickBot="1">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1">
       <c r="C5" s="26"/>
-      <c r="K5" s="24" t="s">
-        <v>17</v>
-      </c>
       <c r="L5" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="26.25" thickBot="1">
+        <v>13</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="26.25" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -718,697 +784,803 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="L6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" ht="13.5" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="3">
+        <v>41050</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="5"/>
-      <c r="K7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J7" s="5"/>
+      <c r="L7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" ht="13.5" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="B8" s="3">
+        <v>41051</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="I8" s="5"/>
-      <c r="K8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J8" s="5"/>
+      <c r="L8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="28">
         <v>1</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="B9" s="3">
+        <v>41054</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="I9" s="5"/>
-      <c r="K9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J9" s="5"/>
+      <c r="L9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="28"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="K10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J10" s="8"/>
+      <c r="L10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="29"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="K11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J11" s="8"/>
+      <c r="L11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="28"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="K12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J12" s="5"/>
+      <c r="L12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="30"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J13" s="11"/>
+      <c r="L13" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A14" s="28">
         <v>2</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J14" s="14"/>
+      <c r="L14" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A15" s="30"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A16" s="29"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="28"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J17" s="5"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="28"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J18" s="5"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A19" s="28">
         <v>3</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J19" s="5"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="28"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J20" s="8"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A21" s="29"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J21" s="8"/>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="23" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J22" s="5"/>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A23" s="30"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A24" s="28">
         <v>4</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A25" s="30"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="29"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-    </row>
-    <row r="27" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="28"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J27" s="5"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="28"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J28" s="5"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="28">
         <v>5</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="L29" s="27"/>
-    </row>
-    <row r="30" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J29" s="5"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="28"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J30" s="8"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="29"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="L31" s="27"/>
-    </row>
-    <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J31" s="8"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="28"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="L32" s="27"/>
-    </row>
-    <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J32" s="5"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="28">
         <v>6</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A35" s="30"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="29"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
-    </row>
-    <row r="37" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="28"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="L37" s="27"/>
-    </row>
-    <row r="38" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J37" s="5"/>
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="28"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="L38" s="27"/>
-    </row>
-    <row r="39" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J38" s="5"/>
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="28">
         <v>7</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="L39" s="27"/>
-    </row>
-    <row r="40" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J39" s="5"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="28"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="L40" s="27"/>
-    </row>
-    <row r="41" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J40" s="8"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="29"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="L41" s="27"/>
-    </row>
-    <row r="42" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J41" s="8"/>
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="28"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="L42" s="27"/>
-    </row>
-    <row r="43" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J42" s="5"/>
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A43" s="30"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="28">
         <v>8</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
+      <c r="E44" s="39"/>
       <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="30"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="29"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
+      <c r="E46" s="41"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
-    </row>
-    <row r="47" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="28"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="L47" s="27"/>
-    </row>
-    <row r="48" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J47" s="5"/>
+      <c r="M47" s="27"/>
+    </row>
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="30"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="5"/>
       <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="28">
         <v>9</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="30"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A51" s="29"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
-    </row>
-    <row r="52" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="28"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="L52" s="27"/>
-    </row>
-    <row r="53" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J52" s="5"/>
+      <c r="M52" s="27"/>
+    </row>
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="28"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="L53" s="27"/>
-    </row>
-    <row r="54" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J53" s="5"/>
+      <c r="M53" s="27"/>
+    </row>
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="28">
         <v>10</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="L54" s="27"/>
-    </row>
-    <row r="55" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J54" s="5"/>
+      <c r="M54" s="27"/>
+    </row>
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="28"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="37"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
-      <c r="L55" s="27"/>
-    </row>
-    <row r="56" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J55" s="8"/>
+      <c r="M55" s="27"/>
+    </row>
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A56" s="29"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="37"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
-      <c r="L56" s="27"/>
-    </row>
-    <row r="57" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J56" s="8"/>
+      <c r="M56" s="27"/>
+    </row>
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A57" s="28"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="36"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="L57" s="27"/>
-    </row>
-    <row r="58" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J57" s="5"/>
+      <c r="M57" s="27"/>
+    </row>
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A58" s="30"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
+      <c r="E58" s="38"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="5"/>
       <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="28">
         <v>11</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="14"/>
+      <c r="E59" s="39"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="14"/>
-    </row>
-    <row r="60" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J59" s="14"/>
+    </row>
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A60" s="30"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="18"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A61" s="29"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
+      <c r="E61" s="41"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1418,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L61"/>
+  <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1429,51 +1601,54 @@
     <col min="1" max="1" width="7.42578125" style="22" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="23"/>
     <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="23"/>
-    <col min="6" max="6" width="19.7109375" style="23" customWidth="1"/>
-    <col min="7" max="7" width="22" style="23" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="23"/>
-    <col min="11" max="11" width="26" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="23"/>
+    <col min="4" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="9.140625" style="35"/>
+    <col min="6" max="6" width="9.140625" style="23"/>
+    <col min="7" max="7" width="19.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="22" style="23" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="23"/>
+    <col min="12" max="12" width="26" style="23" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="E2" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>19</v>
+      </c>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="D3" s="24"/>
-      <c r="K3" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="31">
+        <v>16</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="31">
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13.5" thickBot="1">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1">
       <c r="C5" s="26"/>
-      <c r="K5" s="24" t="s">
-        <v>17</v>
-      </c>
       <c r="L5" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="26.25" thickBot="1">
+        <v>13</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="26.25" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1490,23 +1665,26 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="L6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
       <c r="B7" s="32">
         <v>41052</v>
@@ -1517,702 +1695,763 @@
       <c r="D7" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="36">
         <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="5"/>
-      <c r="K7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J7" s="5"/>
+      <c r="L7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="4">
         <v>0.5625</v>
       </c>
       <c r="D8" s="4">
         <v>0.59722222222222221</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="36">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="I8" s="5"/>
-      <c r="K8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J8" s="5"/>
+      <c r="L8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="28">
         <v>1</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="4">
         <v>0.59722222222222221</v>
       </c>
       <c r="D9" s="4">
         <v>0.64236111111111105</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="36">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="5"/>
-      <c r="K9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J9" s="5"/>
+      <c r="L9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="28"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="K10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J10" s="8"/>
+      <c r="L10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="29"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="K11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J11" s="8"/>
+      <c r="L11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="28"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="K12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J12" s="5"/>
+      <c r="L12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="30"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A14" s="28">
         <v>2</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A15" s="30"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A16" s="29"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="28"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J17" s="5"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="28"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J18" s="5"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A19" s="28">
         <v>3</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J19" s="5"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="28"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J20" s="8"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A21" s="29"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J21" s="8"/>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="23" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J22" s="5"/>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A23" s="30"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A24" s="28">
         <v>4</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A25" s="30"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="29"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-    </row>
-    <row r="27" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="28"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J27" s="5"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="28"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J28" s="5"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="28">
         <v>5</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="L29" s="27"/>
-    </row>
-    <row r="30" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J29" s="5"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="28"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J30" s="8"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="29"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="L31" s="27"/>
-    </row>
-    <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J31" s="8"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="28"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="L32" s="27"/>
-    </row>
-    <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J32" s="5"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="28">
         <v>6</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A35" s="30"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="29"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
-    </row>
-    <row r="37" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="28"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="L37" s="27"/>
-    </row>
-    <row r="38" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J37" s="5"/>
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="28"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="L38" s="27"/>
-    </row>
-    <row r="39" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J38" s="5"/>
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="28">
         <v>7</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="L39" s="27"/>
-    </row>
-    <row r="40" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J39" s="5"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="28"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="L40" s="27"/>
-    </row>
-    <row r="41" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J40" s="8"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="29"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="L41" s="27"/>
-    </row>
-    <row r="42" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J41" s="8"/>
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="28"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="L42" s="27"/>
-    </row>
-    <row r="43" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J42" s="5"/>
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A43" s="30"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="28">
         <v>8</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
+      <c r="E44" s="39"/>
       <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="30"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="29"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
+      <c r="E46" s="41"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
-    </row>
-    <row r="47" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="28"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="L47" s="27"/>
-    </row>
-    <row r="48" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J47" s="5"/>
+      <c r="M47" s="27"/>
+    </row>
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="30"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="5"/>
       <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="28">
         <v>9</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="30"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A51" s="29"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
-    </row>
-    <row r="52" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="28"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="L52" s="27"/>
-    </row>
-    <row r="53" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J52" s="5"/>
+      <c r="M52" s="27"/>
+    </row>
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="28"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="L53" s="27"/>
-    </row>
-    <row r="54" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J53" s="5"/>
+      <c r="M53" s="27"/>
+    </row>
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="28">
         <v>10</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="L54" s="27"/>
-    </row>
-    <row r="55" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J54" s="5"/>
+      <c r="M54" s="27"/>
+    </row>
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="28"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="37"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
-      <c r="L55" s="27"/>
-    </row>
-    <row r="56" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J55" s="8"/>
+      <c r="M55" s="27"/>
+    </row>
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A56" s="29"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="37"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
-      <c r="L56" s="27"/>
-    </row>
-    <row r="57" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J56" s="8"/>
+      <c r="M56" s="27"/>
+    </row>
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A57" s="28"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="36"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="L57" s="27"/>
-    </row>
-    <row r="58" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J57" s="5"/>
+      <c r="M57" s="27"/>
+    </row>
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A58" s="30"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
+      <c r="E58" s="38"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="5"/>
       <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="28">
         <v>11</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="14"/>
+      <c r="E59" s="39"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="14"/>
-    </row>
-    <row r="60" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J59" s="14"/>
+    </row>
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A60" s="30"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="18"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A61" s="29"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
+      <c r="E61" s="41"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2224,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L61"/>
+  <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2235,51 +2474,54 @@
     <col min="1" max="1" width="7.42578125" style="22" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="23"/>
     <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="23"/>
-    <col min="6" max="6" width="14" style="23" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="23"/>
-    <col min="11" max="11" width="26" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="23"/>
+    <col min="4" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="9.140625" style="35"/>
+    <col min="6" max="6" width="9.140625" style="23"/>
+    <col min="7" max="7" width="14" style="23" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="23"/>
+    <col min="12" max="12" width="26" style="23" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="E2" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="D3" s="24"/>
-      <c r="K3" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="31">
+        <v>16</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="31">
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13.5" thickBot="1">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1">
       <c r="C5" s="26"/>
-      <c r="K5" s="24" t="s">
-        <v>17</v>
-      </c>
       <c r="L5" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="26.25" thickBot="1">
+        <v>13</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="26.25" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2296,697 +2538,740 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="K7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J7" s="5"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="K8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J8" s="5"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="28">
         <v>1</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="K9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J9" s="5"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="28"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="K10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J10" s="8"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="29"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="K11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J11" s="8"/>
+      <c r="L11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="28"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="K12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J12" s="5"/>
+      <c r="L12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="30"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A14" s="28">
         <v>2</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A15" s="30"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A16" s="29"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="28"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J17" s="5"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="28"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J18" s="5"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A19" s="28">
         <v>3</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J19" s="5"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="28"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J20" s="8"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A21" s="29"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J21" s="8"/>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="23" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J22" s="5"/>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A23" s="30"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A24" s="28">
         <v>4</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A25" s="30"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="29"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-    </row>
-    <row r="27" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="28"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J27" s="5"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="28"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J28" s="5"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="28">
         <v>5</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="L29" s="27"/>
-    </row>
-    <row r="30" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J29" s="5"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="28"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J30" s="8"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="29"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="L31" s="27"/>
-    </row>
-    <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J31" s="8"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="28"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="L32" s="27"/>
-    </row>
-    <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J32" s="5"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="28">
         <v>6</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A35" s="30"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="29"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
-    </row>
-    <row r="37" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="28"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="L37" s="27"/>
-    </row>
-    <row r="38" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J37" s="5"/>
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="28"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="L38" s="27"/>
-    </row>
-    <row r="39" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J38" s="5"/>
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="28">
         <v>7</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="L39" s="27"/>
-    </row>
-    <row r="40" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J39" s="5"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="28"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="L40" s="27"/>
-    </row>
-    <row r="41" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J40" s="8"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="29"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="L41" s="27"/>
-    </row>
-    <row r="42" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J41" s="8"/>
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="28"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="L42" s="27"/>
-    </row>
-    <row r="43" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J42" s="5"/>
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A43" s="30"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="28">
         <v>8</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
+      <c r="E44" s="39"/>
       <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="30"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="29"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
+      <c r="E46" s="41"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
-    </row>
-    <row r="47" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="28"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="L47" s="27"/>
-    </row>
-    <row r="48" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J47" s="5"/>
+      <c r="M47" s="27"/>
+    </row>
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="30"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="5"/>
       <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="28">
         <v>9</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="30"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A51" s="29"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
-    </row>
-    <row r="52" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="28"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="L52" s="27"/>
-    </row>
-    <row r="53" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J52" s="5"/>
+      <c r="M52" s="27"/>
+    </row>
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="28"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="L53" s="27"/>
-    </row>
-    <row r="54" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J53" s="5"/>
+      <c r="M53" s="27"/>
+    </row>
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="28">
         <v>10</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="L54" s="27"/>
-    </row>
-    <row r="55" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J54" s="5"/>
+      <c r="M54" s="27"/>
+    </row>
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="28"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="37"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
-      <c r="L55" s="27"/>
-    </row>
-    <row r="56" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J55" s="8"/>
+      <c r="M55" s="27"/>
+    </row>
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A56" s="29"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="37"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
-      <c r="L56" s="27"/>
-    </row>
-    <row r="57" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J56" s="8"/>
+      <c r="M56" s="27"/>
+    </row>
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A57" s="28"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="36"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="L57" s="27"/>
-    </row>
-    <row r="58" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J57" s="5"/>
+      <c r="M57" s="27"/>
+    </row>
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A58" s="30"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
+      <c r="E58" s="38"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="5"/>
       <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="28">
         <v>11</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="14"/>
+      <c r="E59" s="39"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="14"/>
-    </row>
-    <row r="60" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J59" s="14"/>
+    </row>
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A60" s="30"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="18"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A61" s="29"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
+      <c r="E61" s="41"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/SAD - Software Architecture & Design/Final/Report/Time Log/SAD-TimeLog-TamDo.xlsx
+++ b/trunk/SAD - Software Architecture & Design/Final/Report/Time Log/SAD-TimeLog-TamDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Week</t>
   </si>
@@ -152,6 +152,31 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Định hình sơ bộ yêu cầu - ver0.4</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Team, Customer Meeting Report</t>
+  </si>
+  <si>
+    <t>SEP-TeamMeetingMinutes-120525
+SEP-CustomerMeetingMinutes-120525</t>
+  </si>
+  <si>
+    <t>Team Meeting Report</t>
+  </si>
+  <si>
+    <t>SEP-TeamMeetingMinutes-120527</t>
+  </si>
+  <si>
+    <t>Review UC Description of Tin Nguyen</t>
+  </si>
+  <si>
+    <t>UC Description - Ver0.1</t>
   </si>
 </sst>
 </file>
@@ -161,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +210,17 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -300,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -385,15 +421,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,6 +441,140 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M61"/>
+  <dimension ref="A2:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -721,10 +882,10 @@
     <col min="2" max="2" width="9.140625" style="23"/>
     <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="23"/>
-    <col min="5" max="5" width="9.140625" style="35"/>
+    <col min="5" max="5" width="9.140625" style="32"/>
     <col min="6" max="6" width="9.140625" style="23"/>
-    <col min="7" max="7" width="18.140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="23" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="23" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" style="23" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="23"/>
@@ -751,7 +912,7 @@
       <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="32" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="31">
@@ -814,7 +975,7 @@
       <c r="D7" s="4">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="33">
         <v>0.5</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -844,7 +1005,7 @@
       <c r="D8" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="33">
         <v>0.5</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -867,7 +1028,7 @@
       <c r="A9" s="28">
         <v>1</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="47">
         <v>41054</v>
       </c>
       <c r="C9" s="4">
@@ -876,7 +1037,7 @@
       <c r="D9" s="4">
         <v>0.54861111111111105</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="33">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -897,31 +1058,55 @@
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="28"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
       <c r="L10" s="23" t="s">
         <v>33</v>
       </c>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+    <row r="11" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="4">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
       <c r="L11" s="23" t="s">
         <v>34</v>
       </c>
@@ -929,13 +1114,27 @@
     </row>
     <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="28"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="3">
+        <v>41056</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D12" s="4">
+        <v>15</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="L12" s="23" t="s">
@@ -944,134 +1143,137 @@
       <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
       <c r="L13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A16" s="30"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="L16" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="28">
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A17" s="28">
         <v>2</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="L14" s="23" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="L17" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="M17" s="27"/>
-    </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="M18" s="27"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="28">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="M19" s="27"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="28"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="28">
+        <v>3</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="36"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1080,128 +1282,128 @@
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="28">
+      <c r="A24" s="29"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A25" s="28"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A26" s="30"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A27" s="28">
         <v>4</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="36"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="M27" s="27"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="M28" s="27"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A29" s="28">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="M29" s="27"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="28"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="28"/>
+      <c r="A32" s="28">
+        <v>5</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="36"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -1210,128 +1412,128 @@
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="M33" s="27"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A34" s="28">
+      <c r="A34" s="29"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A36" s="30"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A37" s="28">
         <v>6</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-    </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="36"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="M37" s="27"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="28"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="M38" s="27"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
     </row>
     <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A39" s="28">
-        <v>7</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="M39" s="27"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="28"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
       <c r="M40" s="27"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
       <c r="M41" s="27"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="28"/>
+      <c r="A42" s="28">
+        <v>7</v>
+      </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="36"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -1340,191 +1542,191 @@
       <c r="M42" s="27"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="M43" s="27"/>
     </row>
     <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="28">
+      <c r="A44" s="29"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="M44" s="27"/>
+    </row>
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A45" s="28"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="M45" s="27"/>
+    </row>
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A46" s="30"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A47" s="28">
         <v>8</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="30"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-    </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="36"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="M47" s="27"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="30"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="28">
+      <c r="A49" s="29"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+    </row>
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A50" s="28"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="M50" s="27"/>
+    </row>
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A51" s="30"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A52" s="28">
         <v>9</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-    </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A52" s="28"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="36"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="M52" s="27"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A53" s="28"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="M53" s="27"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
     </row>
     <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="28">
-        <v>10</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="M54" s="27"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="28"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
       <c r="M55" s="27"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="29"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
       <c r="M56" s="27"/>
     </row>
     <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A57" s="28"/>
+      <c r="A57" s="28">
+        <v>10</v>
+      </c>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="36"/>
+      <c r="E57" s="33"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -1533,56 +1735,98 @@
       <c r="M57" s="27"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A58" s="30"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="M58" s="27"/>
     </row>
     <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A59" s="28">
+      <c r="A59" s="29"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="M59" s="27"/>
+    </row>
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A60" s="28"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="M60" s="27"/>
+    </row>
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A61" s="30"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+    </row>
+    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A62" s="28">
         <v>11</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-    </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="30"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-    </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="29"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+    </row>
+    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A63" s="30"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+    </row>
+    <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A64" s="29"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:B11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1592,872 +1836,887 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="23"/>
-    <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="23"/>
-    <col min="5" max="5" width="9.140625" style="35"/>
-    <col min="6" max="6" width="9.140625" style="23"/>
-    <col min="7" max="7" width="19.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="22" style="23" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="23"/>
-    <col min="12" max="12" width="26" style="23" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="7.42578125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="51"/>
+    <col min="3" max="3" width="10.7109375" style="51" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="51"/>
+    <col min="5" max="5" width="9.140625" style="53"/>
+    <col min="6" max="6" width="9.140625" style="51"/>
+    <col min="7" max="7" width="19.7109375" style="51" customWidth="1"/>
+    <col min="8" max="8" width="22" style="51" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="51" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="51" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="51"/>
+    <col min="12" max="12" width="26" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="D3" s="24"/>
-      <c r="L3" s="25" t="s">
+      <c r="D3" s="52"/>
+      <c r="L3" s="54" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="55">
         <v>41050</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="13.5" thickBot="1">
-      <c r="C5" s="26"/>
-      <c r="L5" s="24" t="s">
+      <c r="C5" s="56"/>
+      <c r="L5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="52" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="27"/>
+      <c r="M6" s="59"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="32">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61">
         <v>41052</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="62">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="62">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="63">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="L7" s="23" t="s">
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="L7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="27"/>
+      <c r="M7" s="59"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="4">
+      <c r="A8" s="60"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="62">
         <v>0.5625</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="62">
         <v>0.59722222222222221</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="63">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="L8" s="23" t="s">
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="L8" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="27"/>
+      <c r="M8" s="59"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="28">
+      <c r="A9" s="60">
         <v>1</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="4">
+      <c r="B9" s="66"/>
+      <c r="C9" s="62">
         <v>0.59722222222222221</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="62">
         <v>0.64236111111111105</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="63">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="L9" s="23" t="s">
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="L9" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="27"/>
-    </row>
-    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="L10" s="23" t="s">
+      <c r="M9" s="59"/>
+    </row>
+    <row r="10" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A10" s="60"/>
+      <c r="B10" s="67">
+        <v>41057</v>
+      </c>
+      <c r="C10" s="62">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D10" s="62">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="E10" s="63">
+        <v>1</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="L10" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="27"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="L11" s="23" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="L11" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="27"/>
+      <c r="M11" s="59"/>
     </row>
     <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="L12" s="23" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="L12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="27"/>
+      <c r="M12" s="59"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="28">
+      <c r="A14" s="60">
         <v>2</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="M17" s="27"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="M17" s="59"/>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="M18" s="27"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="M18" s="59"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="28">
+      <c r="A19" s="60">
         <v>3</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="M19" s="27"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="M19" s="59"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="M20" s="27"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="M20" s="59"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="M21" s="27"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="M21" s="59"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="M22" s="27"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="M22" s="59"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="28">
+      <c r="A24" s="60">
         <v>4</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="M27" s="27"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="M27" s="59"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="M28" s="27"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="M28" s="59"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A29" s="28">
+      <c r="A29" s="60">
         <v>5</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="M29" s="27"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="M29" s="59"/>
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="M30" s="27"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="M30" s="59"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="M31" s="27"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="M31" s="59"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="M32" s="27"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="M32" s="59"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A34" s="28">
+      <c r="A34" s="60">
         <v>6</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
     </row>
     <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
     </row>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="M37" s="27"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="M37" s="59"/>
     </row>
     <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="28"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="M38" s="27"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="M38" s="59"/>
     </row>
     <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A39" s="28">
+      <c r="A39" s="60">
         <v>7</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="M39" s="27"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="M39" s="59"/>
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="M40" s="27"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="M40" s="59"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="M41" s="27"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="M41" s="59"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="28"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="M42" s="27"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="M42" s="59"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
     </row>
     <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="28">
+      <c r="A44" s="60">
         <v>8</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
     </row>
     <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="30"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
     </row>
     <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
     </row>
     <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="M47" s="27"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="M47" s="59"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="30"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
     </row>
     <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="28">
+      <c r="A49" s="60">
         <v>9</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A52" s="28"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="M52" s="27"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="M52" s="59"/>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A53" s="28"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="M53" s="27"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="M53" s="59"/>
     </row>
     <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="28">
+      <c r="A54" s="60">
         <v>10</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="M54" s="27"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="M54" s="59"/>
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A55" s="28"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="M55" s="27"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="M55" s="59"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="29"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="M56" s="27"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="M56" s="59"/>
     </row>
     <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A57" s="28"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="M57" s="27"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="M57" s="59"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A58" s="30"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
     </row>
     <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A59" s="28">
+      <c r="A59" s="60">
         <v>11</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="30"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="29"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B7:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2465,7 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2475,7 +2734,7 @@
     <col min="2" max="2" width="9.140625" style="23"/>
     <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="23"/>
-    <col min="5" max="5" width="9.140625" style="35"/>
+    <col min="5" max="5" width="9.140625" style="32"/>
     <col min="6" max="6" width="9.140625" style="23"/>
     <col min="7" max="7" width="14" style="23" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" style="23" customWidth="1"/>
@@ -2505,7 +2764,7 @@
       <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="32" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="31">
@@ -2559,7 +2818,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="36"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -2572,7 +2831,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="36"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2587,7 +2846,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="36"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -2600,7 +2859,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="37"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -2613,7 +2872,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2629,7 +2888,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="36"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2645,7 +2904,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="38"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="5"/>
@@ -2659,7 +2918,7 @@
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="39"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
@@ -2671,7 +2930,7 @@
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -2683,7 +2942,7 @@
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="41"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -2695,7 +2954,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="36"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2708,7 +2967,7 @@
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="36"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2723,7 +2982,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="36"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2736,7 +2995,7 @@
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="37"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -2749,7 +3008,7 @@
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="37"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2762,7 +3021,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="36"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2775,7 +3034,7 @@
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="38"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="5"/>
@@ -2789,7 +3048,7 @@
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="39"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
@@ -2801,7 +3060,7 @@
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -2813,7 +3072,7 @@
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -2825,7 +3084,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="36"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2838,7 +3097,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="36"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2853,7 +3112,7 @@
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="36"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2866,7 +3125,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="37"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -2879,7 +3138,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="37"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -2892,7 +3151,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="36"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2905,7 +3164,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="38"/>
+      <c r="E33" s="35"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="5"/>
@@ -2919,7 +3178,7 @@
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="39"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
@@ -2931,7 +3190,7 @@
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="40"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -2943,7 +3202,7 @@
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="41"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -2955,7 +3214,7 @@
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="36"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2968,7 +3227,7 @@
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="36"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2983,7 +3242,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="36"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2996,7 +3255,7 @@
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="37"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -3009,7 +3268,7 @@
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="37"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -3022,7 +3281,7 @@
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="36"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -3035,7 +3294,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="38"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="5"/>
@@ -3049,7 +3308,7 @@
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="39"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
@@ -3061,7 +3320,7 @@
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="40"/>
+      <c r="E45" s="37"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -3073,7 +3332,7 @@
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="41"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -3085,7 +3344,7 @@
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="36"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -3098,7 +3357,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="38"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="5"/>
@@ -3112,7 +3371,7 @@
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="39"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
@@ -3124,7 +3383,7 @@
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="40"/>
+      <c r="E50" s="37"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
@@ -3136,7 +3395,7 @@
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="41"/>
+      <c r="E51" s="38"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -3148,7 +3407,7 @@
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="36"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -3161,7 +3420,7 @@
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="36"/>
+      <c r="E53" s="33"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -3176,7 +3435,7 @@
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="36"/>
+      <c r="E54" s="33"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -3189,7 +3448,7 @@
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="37"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -3202,7 +3461,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="37"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -3215,7 +3474,7 @@
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="36"/>
+      <c r="E57" s="33"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -3228,7 +3487,7 @@
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="38"/>
+      <c r="E58" s="35"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="5"/>
@@ -3242,7 +3501,7 @@
       <c r="B59" s="12"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="39"/>
+      <c r="E59" s="36"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
@@ -3254,7 +3513,7 @@
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="40"/>
+      <c r="E60" s="37"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
@@ -3266,7 +3525,7 @@
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
-      <c r="E61" s="41"/>
+      <c r="E61" s="38"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
